--- a/testData/routing_test_data.xlsx
+++ b/testData/routing_test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网段IP地址不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网段格式不正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,17 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该目的主机可以直接访问，不需要再配置路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机可以直接访问</t>
-  </si>
-  <si>
     <t>不选路由直接点击删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,14 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单个删除路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部删除路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F06_S11_T18_add_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +195,26 @@
   </si>
   <si>
     <t>test_F06_S11_T18_checkout_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除net类型路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除host类型路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网段地址不能为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +592,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -659,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -681,7 +674,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -693,10 +686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -704,6 +697,7 @@
     <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="63.25" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="31.875" customWidth="1"/>
@@ -740,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -754,15 +748,15 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -778,21 +772,21 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -800,21 +794,21 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -824,21 +818,21 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -846,21 +840,21 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -870,21 +864,21 @@
         <v>255</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -894,39 +888,39 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -942,15 +936,15 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -962,15 +956,15 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -984,45 +978,23 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
+      <c r="A13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1036,14 +1008,14 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
@@ -1078,7 +1050,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -1095,23 +1067,31 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
